--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_20_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_20_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2966619.117528284</v>
+        <v>2955301.877551392</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11584606.04512844</v>
+        <v>11584606.04512843</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2120974.001634924</v>
+        <v>2120974.001634923</v>
       </c>
     </row>
     <row r="9">
@@ -1372,22 +1372,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>179.2270913718359</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>114.6494520583717</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572949</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128497</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1609,22 +1609,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>244.6347932915418</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>333.2812473867511</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.4459114043392</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1821,7 +1821,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1846,22 +1846,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>91.73237387425877</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>84.22972854034424</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572876</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.93806880441731</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>241.6510731180178</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2241,25 +2241,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D22" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2326,16 +2326,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G23" t="n">
-        <v>236.6002797240843</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>179.438447948434</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>302.2658320988205</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2493,10 +2493,10 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572838</v>
+        <v>97.77987829572803</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
@@ -2566,7 +2566,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>47.93806880441596</v>
+        <v>353.919354472409</v>
       </c>
       <c r="G26" t="n">
         <v>363.9465890348609</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633451</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572903</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2794,13 +2794,13 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>162.4742767635214</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2809,7 +2809,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>241.651073118018</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.458826027977</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3037,7 +3037,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>62.74101829306566</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3097,7 +3097,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>333.2812473867502</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3195,19 +3195,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052358</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
         <v>239.5478617179984</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.6005339119007</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
@@ -3283,7 +3283,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>241.651073118018</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3432,19 +3432,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572798</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3514,13 +3514,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>13.91332762480604</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>241.6510731180174</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3681,7 +3681,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>72.01057977447421</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>136.0870494265605</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247588</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>98.60380005574301</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>81.17400253769613</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>83.91763484385028</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>120.6088074159619</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>137.0872572463015</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>270.380862279625</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1949.376240813992</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="C11" t="n">
-        <v>1627.863356821653</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.047291162976</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E11" t="n">
-        <v>978.7086715128054</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F11" t="n">
-        <v>615.1723996712711</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G11" t="n">
-        <v>247.5495824643409</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5041,7 +5041,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5050,7 +5050,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5071,22 +5071,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2988.429144084946</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243047</v>
+        <v>2704.815889689448</v>
       </c>
       <c r="W11" t="n">
-        <v>2614.542573243047</v>
+        <v>2704.815889689448</v>
       </c>
       <c r="X11" t="n">
-        <v>2288.52644793004</v>
+        <v>2378.799764376442</v>
       </c>
       <c r="Y11" t="n">
-        <v>2288.52644793004</v>
+        <v>2036.110065348704</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064531</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052945</v>
+        <v>759.4662498052955</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254619</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611995</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268797</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770427</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998349</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
         <v>408.6327023328087</v>
@@ -5217,7 +5217,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5235,16 +5235,16 @@
         <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832863</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882919</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874619</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1647.821809384542</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C14" t="n">
-        <v>1326.308925392204</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D14" t="n">
-        <v>1015.492859733527</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>677.1542400833558</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>313.6179682418216</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
-        <v>313.6179682418216</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3167.077706941467</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2960.996863163376</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2960.996863163376</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2655.677840841336</v>
+        <v>3020.28679928713</v>
       </c>
       <c r="X14" t="n">
-        <v>2329.661715528329</v>
+        <v>2694.270673974124</v>
       </c>
       <c r="Y14" t="n">
-        <v>1986.972016500591</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611989</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268791</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
         <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337116</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P16" t="n">
         <v>2175.221948702824</v>
@@ -5478,10 +5478,10 @@
         <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1680.134122574823</v>
+        <v>1743.508888527416</v>
       </c>
       <c r="C17" t="n">
-        <v>1358.621238582484</v>
+        <v>1421.996004535077</v>
       </c>
       <c r="D17" t="n">
-        <v>1047.805172923807</v>
+        <v>1111.1799388764</v>
       </c>
       <c r="E17" t="n">
-        <v>1047.805172923807</v>
+        <v>772.8413192262294</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822731</v>
+        <v>409.3050473846952</v>
       </c>
       <c r="G17" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T17" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="U17" t="n">
-        <v>3056.683942306249</v>
+        <v>3056.68394230625</v>
       </c>
       <c r="V17" t="n">
-        <v>2773.070687910752</v>
+        <v>3056.68394230625</v>
       </c>
       <c r="W17" t="n">
-        <v>2687.990154031616</v>
+        <v>2751.364919984209</v>
       </c>
       <c r="X17" t="n">
-        <v>2361.97402871861</v>
+        <v>2425.348794671203</v>
       </c>
       <c r="Y17" t="n">
-        <v>2019.284329690871</v>
+        <v>2082.659095643464</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611989</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268791</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F19" t="n">
-        <v>335.408918177042</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998342</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H19" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328075</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337103</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V19" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1654.93647038346</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C20" t="n">
-        <v>1333.423586391121</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D20" t="n">
-        <v>1022.607520732444</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E20" t="n">
-        <v>684.2689010822731</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3167.077706941467</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2960.996863163376</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2677.383608767879</v>
+        <v>3081.513828560668</v>
       </c>
       <c r="W20" t="n">
-        <v>2372.064586445838</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X20" t="n">
-        <v>2046.048461132832</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y20" t="n">
-        <v>1703.358762105093</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K22" t="n">
         <v>408.6327023328087</v>
@@ -5925,37 +5925,37 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V22" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1301.367519464212</v>
+        <v>1949.589732305505</v>
       </c>
       <c r="C23" t="n">
-        <v>979.854635471874</v>
+        <v>1628.076848313167</v>
       </c>
       <c r="D23" t="n">
-        <v>669.0385698131968</v>
+        <v>1317.26078265449</v>
       </c>
       <c r="E23" t="n">
-        <v>669.0385698131968</v>
+        <v>978.9221630043186</v>
       </c>
       <c r="F23" t="n">
-        <v>305.5022979716625</v>
+        <v>615.3858911627843</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>247.7630739558541</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -5989,16 +5989,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6007,7 +6007,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6019,22 +6019,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T23" t="n">
-        <v>3104.236671416634</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U23" t="n">
-        <v>2898.155827638544</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="V23" t="n">
-        <v>2614.542573243047</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="W23" t="n">
-        <v>2309.223550921006</v>
+        <v>2957.445763762299</v>
       </c>
       <c r="X23" t="n">
-        <v>1983.207425607999</v>
+        <v>2631.429638449292</v>
       </c>
       <c r="Y23" t="n">
-        <v>1640.517726580261</v>
+        <v>2288.739939421554</v>
       </c>
     </row>
     <row r="24">
@@ -6059,10 +6059,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6071,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,10 +6086,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1785.734441306719</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C25" t="n">
-        <v>1664.247891326885</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D25" t="n">
-        <v>1561.580884862623</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E25" t="n">
-        <v>1461.117424228303</v>
+        <v>434.8492327268782</v>
       </c>
       <c r="F25" t="n">
-        <v>1361.677109678466</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G25" t="n">
-        <v>1241.423906001259</v>
+        <v>215.1557144998335</v>
       </c>
       <c r="H25" t="n">
-        <v>1142.656352167189</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I25" t="n">
-        <v>1092.780307933608</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>1184.40832563295</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K25" t="n">
-        <v>1434.900893834234</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L25" t="n">
-        <v>1797.966077535136</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M25" t="n">
-        <v>2188.628508387092</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N25" t="n">
-        <v>2576.542270345363</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O25" t="n">
-        <v>2922.377254518183</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P25" t="n">
-        <v>3201.490140204249</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R25" t="n">
-        <v>3283.224997314772</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S25" t="n">
-        <v>3138.988746089671</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T25" t="n">
-        <v>2964.67176360727</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U25" t="n">
-        <v>2723.018529680987</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V25" t="n">
-        <v>2515.783674423174</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W25" t="n">
-        <v>2273.816137334286</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X25" t="n">
-        <v>2093.276219384343</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y25" t="n">
-        <v>1919.933273188885</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1703.358762105092</v>
+        <v>2012.430767830338</v>
       </c>
       <c r="C26" t="n">
-        <v>1381.845878112754</v>
+        <v>1690.917883837999</v>
       </c>
       <c r="D26" t="n">
-        <v>1071.029812454076</v>
+        <v>1380.101818179322</v>
       </c>
       <c r="E26" t="n">
-        <v>732.6911928039054</v>
+        <v>1041.763198529151</v>
       </c>
       <c r="F26" t="n">
         <v>684.2689010822731</v>
@@ -6220,58 +6220,58 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3167.077706941465</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2960.996863163375</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2677.383608767878</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>2372.064586445837</v>
+        <v>3020.286799287131</v>
       </c>
       <c r="X26" t="n">
-        <v>2046.04846113283</v>
+        <v>2694.270673974124</v>
       </c>
       <c r="Y26" t="n">
-        <v>1703.358762105092</v>
+        <v>2351.580974946386</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6323,34 +6323,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.4662498052951</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9796998254615</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D28" t="n">
-        <v>535.3126933611991</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E28" t="n">
-        <v>434.8492327268793</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F28" t="n">
-        <v>335.4089181770422</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G28" t="n">
-        <v>215.1557144998345</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H28" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K28" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L28" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M28" t="n">
         <v>1162.360316885667</v>
@@ -6429,7 +6429,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.6650816874615</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1522.736669656749</v>
+        <v>2012.430767830338</v>
       </c>
       <c r="C29" t="n">
-        <v>1358.621238582484</v>
+        <v>1690.917883837999</v>
       </c>
       <c r="D29" t="n">
-        <v>1047.805172923807</v>
+        <v>1380.101818179322</v>
       </c>
       <c r="E29" t="n">
-        <v>1047.805172923807</v>
+        <v>1041.763198529151</v>
       </c>
       <c r="F29" t="n">
-        <v>684.2689010822731</v>
+        <v>678.2269266876167</v>
       </c>
       <c r="G29" t="n">
-        <v>316.6460838753429</v>
+        <v>310.6041094806865</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.52497783108</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2835.911723435583</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W29" t="n">
-        <v>2530.592701113542</v>
+        <v>3020.286799287131</v>
       </c>
       <c r="X29" t="n">
-        <v>2204.576575800535</v>
+        <v>2694.270673974124</v>
       </c>
       <c r="Y29" t="n">
-        <v>1861.886876772797</v>
+        <v>2351.580974946386</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6560,34 +6560,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1785.734441306719</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C31" t="n">
-        <v>1664.247891326886</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D31" t="n">
-        <v>1561.580884862623</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E31" t="n">
-        <v>1461.117424228303</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F31" t="n">
-        <v>1361.677109678466</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G31" t="n">
-        <v>1241.423906001258</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H31" t="n">
-        <v>1142.656352167189</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I31" t="n">
-        <v>1092.780307933608</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>1184.40832563295</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K31" t="n">
-        <v>1434.900893834233</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L31" t="n">
-        <v>1797.966077535136</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M31" t="n">
-        <v>2188.628508387092</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N31" t="n">
-        <v>2576.542270345363</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O31" t="n">
-        <v>2922.377254518183</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P31" t="n">
-        <v>3201.490140204249</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.60582160917</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R31" t="n">
-        <v>3283.224997314771</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S31" t="n">
-        <v>3138.988746089671</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T31" t="n">
-        <v>2964.67176360727</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U31" t="n">
-        <v>2723.018529680987</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V31" t="n">
-        <v>2515.783674423174</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W31" t="n">
-        <v>2273.816137334286</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X31" t="n">
-        <v>2093.276219384342</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y31" t="n">
-        <v>1919.933273188886</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1680.134122574823</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C32" t="n">
-        <v>1358.621238582484</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D32" t="n">
-        <v>1047.805172923807</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E32" t="n">
         <v>1047.805172923807</v>
@@ -6694,22 +6694,22 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3056.683942306248</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2993.309176353657</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2687.990154031616</v>
+        <v>3020.28679928713</v>
       </c>
       <c r="X32" t="n">
-        <v>2361.97402871861</v>
+        <v>2694.270673974123</v>
       </c>
       <c r="Y32" t="n">
-        <v>2019.284329690871</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6785,7 +6785,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6852,19 +6852,19 @@
         <v>215.1557144998337</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K34" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L34" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M34" t="n">
         <v>1162.360316885667</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2018.472742224994</v>
+        <v>2012.430767830338</v>
       </c>
       <c r="C35" t="n">
-        <v>1696.959858232656</v>
+        <v>1690.917883837999</v>
       </c>
       <c r="D35" t="n">
-        <v>1386.143792573978</v>
+        <v>1380.101818179322</v>
       </c>
       <c r="E35" t="n">
-        <v>1047.805172923807</v>
+        <v>1041.763198529151</v>
       </c>
       <c r="F35" t="n">
-        <v>684.2689010822731</v>
+        <v>678.2269266876167</v>
       </c>
       <c r="G35" t="n">
-        <v>316.6460838753429</v>
+        <v>310.6041094806865</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912092</v>
@@ -6949,40 +6949,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2820.623417021137</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2515.304394699097</v>
+        <v>3020.286799287131</v>
       </c>
       <c r="X35" t="n">
-        <v>2515.304394699097</v>
+        <v>2694.270673974124</v>
       </c>
       <c r="Y35" t="n">
-        <v>2172.614695671358</v>
+        <v>2351.580974946386</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998334</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H37" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M37" t="n">
         <v>1162.360316885667</v>
@@ -7128,19 +7128,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V37" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1301.367519464212</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C38" t="n">
-        <v>979.854635471874</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D38" t="n">
-        <v>669.0385698131968</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E38" t="n">
-        <v>330.6999501630258</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="F38" t="n">
-        <v>330.6999501630258</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G38" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7192,7 +7192,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2898.155827638544</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2614.542573243047</v>
+        <v>3081.513828560669</v>
       </c>
       <c r="W38" t="n">
-        <v>2309.223550921006</v>
+        <v>2776.194806238628</v>
       </c>
       <c r="X38" t="n">
-        <v>1983.207425607999</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1640.517726580261</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1785.734441306719</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C40" t="n">
-        <v>1664.247891326886</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D40" t="n">
-        <v>1561.580884862623</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E40" t="n">
-        <v>1461.117424228303</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F40" t="n">
-        <v>1361.677109678466</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G40" t="n">
-        <v>1241.423906001259</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H40" t="n">
-        <v>1142.65635216719</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I40" t="n">
-        <v>1092.780307933609</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>1184.408325632951</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K40" t="n">
-        <v>1434.900893834234</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.966077535136</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M40" t="n">
-        <v>2188.628508387092</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N40" t="n">
-        <v>2576.542270345363</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O40" t="n">
-        <v>2922.377254518183</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P40" t="n">
-        <v>3201.490140204249</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R40" t="n">
-        <v>3283.224997314771</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S40" t="n">
-        <v>3138.988746089671</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T40" t="n">
-        <v>2964.67176360727</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U40" t="n">
-        <v>2723.018529680987</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V40" t="n">
-        <v>2515.783674423174</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W40" t="n">
-        <v>2273.816137334287</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X40" t="n">
-        <v>2093.276219384343</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y40" t="n">
-        <v>1919.933273188886</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2047.583838282732</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.62132134232</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136264</v>
+        <v>3252.867862241015</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136264</v>
+        <v>3046.890114625237</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.7846764101</v>
+        <v>3046.890114625237</v>
       </c>
       <c r="V41" t="n">
-        <v>2961.7846764101</v>
+        <v>3046.890114625237</v>
       </c>
       <c r="W41" t="n">
-        <v>2961.7846764101</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="X41" t="n">
-        <v>2824.323010322666</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="Y41" t="n">
-        <v>2434.183678346854</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7505,37 +7505,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>725.2707086397585</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C43" t="n">
-        <v>725.2707086397585</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D43" t="n">
-        <v>625.6709106036544</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E43" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1845.300606131224</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672846</v>
+        <v>1845.300606131224</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242372</v>
+        <v>1845.300606131224</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1556.197739256867</v>
       </c>
       <c r="V43" t="n">
-        <v>1134.908724368016</v>
+        <v>1301.51325105098</v>
       </c>
       <c r="W43" t="n">
-        <v>1134.908724368016</v>
+        <v>1012.09608101402</v>
       </c>
       <c r="X43" t="n">
-        <v>906.9191734699982</v>
+        <v>784.1065301160024</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.9191734699982</v>
+        <v>563.3139509724723</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1363.1240116961</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C44" t="n">
-        <v>1363.1240116961</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D44" t="n">
-        <v>1363.1240116961</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>977.3357590978553</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>566.3498543082478</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G44" t="n">
-        <v>151.2774041532443</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993391</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267227</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>2866.097597267227</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W44" t="n">
-        <v>2513.328941997113</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X44" t="n">
-        <v>2139.863183736033</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y44" t="n">
-        <v>1749.723851760221</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1702.096133556936</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>1527.643104275809</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.708694614558</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>1219.471239609102</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>1072.936681635987</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>936.5735814686057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>846.0716871064732</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>827.0643955080111</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>920.7416649986284</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>1159.005863978975</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>1525.704024291641</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
-        <v>1972.980349513956</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>2446.50339306841</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2857.464672486465</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>3167.964263962567</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>3325.461468201684</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>3196.023581695164</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>3003.38058137302</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2775.312734507435</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>2540.160626275693</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>2285.923269547491</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>2078.071769341958</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1870.311470577004</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.2459535582111</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>302.3097706303042</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672846</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1645.778206672846</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1645.778206672846</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1391.093718466959</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>1101.676548429998</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>873.686997531981</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>652.8944183884508</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8300,7 +8300,7 @@
         <v>100.9222782029847</v>
       </c>
       <c r="L6" t="n">
-        <v>88.91201201533923</v>
+        <v>88.91201201533924</v>
       </c>
       <c r="M6" t="n">
         <v>84.20373222002493</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100.6266883018174</v>
+        <v>100.6266883018182</v>
       </c>
       <c r="K8" t="n">
-        <v>99.56229245514372</v>
+        <v>99.56229245514494</v>
       </c>
       <c r="L8" t="n">
-        <v>86.2413207635218</v>
+        <v>86.24132076352333</v>
       </c>
       <c r="M8" t="n">
-        <v>63.97075552132708</v>
+        <v>63.97075552132875</v>
       </c>
       <c r="N8" t="n">
-        <v>60.34545672115635</v>
+        <v>60.34545672115806</v>
       </c>
       <c r="O8" t="n">
-        <v>70.45246444210972</v>
+        <v>70.45246444211134</v>
       </c>
       <c r="P8" t="n">
-        <v>94.97904424309499</v>
+        <v>94.97904424309638</v>
       </c>
       <c r="Q8" t="n">
-        <v>119.9846467238487</v>
+        <v>119.9846467238497</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>78.94049240991961</v>
+        <v>78.9404924099201</v>
       </c>
       <c r="K9" t="n">
-        <v>55.9776075862778</v>
+        <v>55.97760758627862</v>
       </c>
       <c r="L9" t="n">
-        <v>28.47835585432458</v>
+        <v>28.47835585432568</v>
       </c>
       <c r="M9" t="n">
-        <v>13.68050595153051</v>
+        <v>13.68050595153181</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>21.9762248527004</v>
+        <v>21.97622485270162</v>
       </c>
       <c r="P9" t="n">
-        <v>37.16620764318432</v>
+        <v>37.1662076431853</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.26805627308957</v>
+        <v>75.26805627309022</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>79.63331870707219</v>
+        <v>79.63331870707268</v>
       </c>
       <c r="L10" t="n">
-        <v>71.69535468613051</v>
+        <v>71.69535468613114</v>
       </c>
       <c r="M10" t="n">
-        <v>72.30150412221414</v>
+        <v>72.30150412221481</v>
       </c>
       <c r="N10" t="n">
-        <v>62.64544110150261</v>
+        <v>62.64544110150328</v>
       </c>
       <c r="O10" t="n">
-        <v>78.38147594965764</v>
+        <v>78.38147594965824</v>
       </c>
       <c r="P10" t="n">
-        <v>86.32340979078187</v>
+        <v>86.32340979078239</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.800178587019128e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.580957587066223e-12</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.87542442342333</v>
+        <v>14.87542442342334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.35522174936685</v>
+        <v>14.35522174936686</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>68.40553639689199</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>89.37058328193773</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.997834477186132</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>5.981554650709882</v>
       </c>
     </row>
     <row r="15">
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>272.2142151606021</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>218.0361035584762</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>287.8206362404707</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>39.12604873352444</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>127.3463093107766</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687279</v>
+        <v>68.19417982029393</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>311.9628403187029</v>
+        <v>5.981554650709882</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>155.8234783888936</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.98155465070991</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>218.0361035584767</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>5.981554650710848</v>
       </c>
     </row>
     <row r="33">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>183.1581711329873</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.98155465070991</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>350.0332614100549</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>39.12604873352495</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.17718201370162</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>233.6440512519085</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>50.01167296246935</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.758150132351204</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>210.6901295434702</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>207.143451054173</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>11.52821577191085</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>741154.5602105357</v>
+        <v>741154.5602105362</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662050.2377066128</v>
+        <v>662050.2377066129</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>662050.2377066128</v>
+        <v>662050.2377066129</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>662050.2377066127</v>
+        <v>662050.2377066129</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>662050.2377066127</v>
+        <v>662050.2377066129</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>662050.2377066128</v>
+        <v>662050.2377066129</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>591893.9475508115</v>
+        <v>591893.9475508116</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>591893.9475508115</v>
+        <v>591893.9475508116</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.7048453343</v>
+        <v>737348.7048453346</v>
       </c>
       <c r="C2" t="n">
-        <v>737379.3175552244</v>
+        <v>737379.3175552248</v>
       </c>
       <c r="D2" t="n">
-        <v>737416.584874794</v>
+        <v>737416.5848747944</v>
       </c>
       <c r="E2" t="n">
         <v>688077.9089008587</v>
       </c>
       <c r="F2" t="n">
+        <v>688077.9089008586</v>
+      </c>
+      <c r="G2" t="n">
+        <v>688077.9089008593</v>
+      </c>
+      <c r="H2" t="n">
         <v>688077.908900859</v>
       </c>
-      <c r="G2" t="n">
-        <v>688077.9089008588</v>
-      </c>
-      <c r="H2" t="n">
-        <v>688077.9089008592</v>
-      </c>
       <c r="I2" t="n">
-        <v>688077.9089008586</v>
+        <v>688077.9089008585</v>
       </c>
       <c r="J2" t="n">
-        <v>688077.9089008588</v>
+        <v>688077.908900859</v>
       </c>
       <c r="K2" t="n">
-        <v>688077.9089008588</v>
+        <v>688077.908900859</v>
       </c>
       <c r="L2" t="n">
-        <v>688077.9089008587</v>
+        <v>688077.908900859</v>
       </c>
       <c r="M2" t="n">
-        <v>688077.9089008586</v>
+        <v>688077.9089008591</v>
       </c>
       <c r="N2" t="n">
-        <v>688077.9089008585</v>
+        <v>688077.9089008584</v>
       </c>
       <c r="O2" t="n">
-        <v>613794.7781476572</v>
+        <v>613794.7781476573</v>
       </c>
       <c r="P2" t="n">
-        <v>613794.7781476571</v>
+        <v>613794.7781476576</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>96791.64878979558</v>
       </c>
       <c r="D3" t="n">
-        <v>110820.3271587273</v>
+        <v>110820.3271587253</v>
       </c>
       <c r="E3" t="n">
-        <v>971990.4577023266</v>
+        <v>971990.4577023288</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>419268.2934420824</v>
       </c>
       <c r="D4" t="n">
-        <v>379150.1073850339</v>
+        <v>379150.1073850346</v>
       </c>
       <c r="E4" t="n">
+        <v>60045.38930863549</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60045.38930863549</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60045.38930863548</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60045.38930863547</v>
+      </c>
+      <c r="I4" t="n">
+        <v>60045.38930863549</v>
+      </c>
+      <c r="J4" t="n">
+        <v>60045.38930863545</v>
+      </c>
+      <c r="K4" t="n">
+        <v>60045.38930863545</v>
+      </c>
+      <c r="L4" t="n">
+        <v>60045.38930863545</v>
+      </c>
+      <c r="M4" t="n">
+        <v>60045.38930863547</v>
+      </c>
+      <c r="N4" t="n">
         <v>60045.38930863546</v>
       </c>
-      <c r="F4" t="n">
-        <v>60045.38930863547</v>
-      </c>
-      <c r="G4" t="n">
-        <v>60045.38930863546</v>
-      </c>
-      <c r="H4" t="n">
-        <v>60045.38930863546</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60045.38930863551</v>
-      </c>
-      <c r="J4" t="n">
-        <v>60045.3893086355</v>
-      </c>
-      <c r="K4" t="n">
-        <v>60045.38930863551</v>
-      </c>
-      <c r="L4" t="n">
-        <v>60045.38930863544</v>
-      </c>
-      <c r="M4" t="n">
-        <v>60045.38930863548</v>
-      </c>
-      <c r="N4" t="n">
-        <v>60045.38930863547</v>
-      </c>
       <c r="O4" t="n">
-        <v>12820.12292715305</v>
+        <v>12820.12292715301</v>
       </c>
       <c r="P4" t="n">
         <v>12820.12292715301</v>
@@ -26475,7 +26475,7 @@
         <v>35944.81206807974</v>
       </c>
       <c r="D5" t="n">
-        <v>38765.74111881951</v>
+        <v>38765.74111881946</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178176</v>
@@ -26484,19 +26484,19 @@
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="H5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="I5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="J5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="K5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="L5" t="n">
         <v>78255.49332178175</v>
@@ -26505,13 +26505,13 @@
         <v>78255.49332178176</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251321.1142963691</v>
+        <v>251276.9785176883</v>
       </c>
       <c r="C6" t="n">
-        <v>185374.5632552667</v>
+        <v>185331.2778296384</v>
       </c>
       <c r="D6" t="n">
-        <v>208680.4092122133</v>
+        <v>208638.1589899079</v>
       </c>
       <c r="E6" t="n">
-        <v>-422213.4314318851</v>
+        <v>-423626.2004312483</v>
       </c>
       <c r="F6" t="n">
-        <v>549777.0262704415</v>
+        <v>548364.2572710804</v>
       </c>
       <c r="G6" t="n">
-        <v>549777.0262704416</v>
+        <v>548364.2572710811</v>
       </c>
       <c r="H6" t="n">
-        <v>549777.0262704419</v>
+        <v>548364.2572710807</v>
       </c>
       <c r="I6" t="n">
-        <v>549777.0262704415</v>
+        <v>548364.2572710803</v>
       </c>
       <c r="J6" t="n">
-        <v>512196.9169755676</v>
+        <v>510784.1479762067</v>
       </c>
       <c r="K6" t="n">
-        <v>549777.0262704416</v>
+        <v>548364.2572710807</v>
       </c>
       <c r="L6" t="n">
-        <v>549777.0262704415</v>
+        <v>548364.2572710807</v>
       </c>
       <c r="M6" t="n">
-        <v>342588.4579783683</v>
+        <v>341175.6889790078</v>
       </c>
       <c r="N6" t="n">
-        <v>549777.0262704412</v>
+        <v>548364.2572710802</v>
       </c>
       <c r="O6" t="n">
-        <v>526668.3146591109</v>
+        <v>523192.1253610499</v>
       </c>
       <c r="P6" t="n">
-        <v>526668.3146591107</v>
+        <v>523192.1253610502</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
@@ -26743,7 +26743,7 @@
         <v>106.2941315632906</v>
       </c>
       <c r="D3" t="n">
-        <v>235.6945467348401</v>
+        <v>235.6945467348377</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="I4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022923</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>106.2941315632906</v>
       </c>
       <c r="D3" t="n">
-        <v>129.4004151715494</v>
+        <v>129.400415171547</v>
       </c>
       <c r="E3" t="n">
-        <v>854.082153858458</v>
+        <v>854.0821538584606</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>85.96255371481348</v>
       </c>
       <c r="S6" t="n">
-        <v>167.4364197154365</v>
+        <v>167.4364197154366</v>
       </c>
       <c r="T6" t="n">
         <v>199.2431786296644</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.7710562795936</v>
+        <v>329.7710562795937</v>
       </c>
       <c r="I8" t="n">
-        <v>173.9467880106273</v>
+        <v>173.9467880106277</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>90.34973071971291</v>
+        <v>90.34973071971351</v>
       </c>
       <c r="S8" t="n">
-        <v>187.4285540738024</v>
+        <v>187.4285540738027</v>
       </c>
       <c r="T8" t="n">
-        <v>218.948099299481</v>
+        <v>218.9480992994811</v>
       </c>
       <c r="U8" t="n">
         <v>251.269851646575</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.8365515343847</v>
+        <v>136.8365515343848</v>
       </c>
       <c r="H9" t="n">
-        <v>107.3392235580991</v>
+        <v>107.3392235580992</v>
       </c>
       <c r="I9" t="n">
-        <v>71.94189519227834</v>
+        <v>71.94189519227851</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>68.68149449624316</v>
+        <v>68.68149449624347</v>
       </c>
       <c r="S9" t="n">
-        <v>162.266506901743</v>
+        <v>162.2665069017431</v>
       </c>
       <c r="T9" t="n">
-        <v>198.1213014452997</v>
+        <v>198.1213014452998</v>
       </c>
       <c r="U9" t="n">
         <v>225.9080290790784</v>
@@ -28031,10 +28031,10 @@
         <v>158.4483320696253</v>
       </c>
       <c r="I10" t="n">
-        <v>142.6688755731788</v>
+        <v>142.6688755731789</v>
       </c>
       <c r="J10" t="n">
-        <v>63.31005733049489</v>
+        <v>63.3100573304952</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.57216669473354</v>
+        <v>50.57216669473389</v>
       </c>
       <c r="R10" t="n">
-        <v>158.1828138665053</v>
+        <v>158.1828138665055</v>
       </c>
       <c r="S10" t="n">
         <v>216.6096071174528</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859142</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859136</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="23">
@@ -29058,7 +29058,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859239</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
         <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30243,7 +30243,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31290,7 +31290,7 @@
         <v>36.2676645176677</v>
       </c>
       <c r="K5" t="n">
-        <v>54.35582768982486</v>
+        <v>54.35582768982485</v>
       </c>
       <c r="L5" t="n">
         <v>67.43321072029745</v>
@@ -31302,7 +31302,7 @@
         <v>76.24654323685169</v>
       </c>
       <c r="O5" t="n">
-        <v>71.99744868114327</v>
+        <v>71.99744868114325</v>
       </c>
       <c r="P5" t="n">
         <v>61.44815672951015</v>
@@ -31363,7 +31363,7 @@
         <v>2.208110167003453</v>
       </c>
       <c r="I6" t="n">
-        <v>7.871782384639922</v>
+        <v>7.871782384639921</v>
       </c>
       <c r="J6" t="n">
         <v>21.60077252834759</v>
@@ -31372,7 +31372,7 @@
         <v>36.91916077137427</v>
       </c>
       <c r="L6" t="n">
-        <v>49.64236776453495</v>
+        <v>49.64236776453494</v>
       </c>
       <c r="M6" t="n">
         <v>57.93030170199339</v>
@@ -31381,22 +31381,22 @@
         <v>59.46354441105257</v>
       </c>
       <c r="O6" t="n">
-        <v>54.39752598975309</v>
+        <v>54.39752598975308</v>
       </c>
       <c r="P6" t="n">
         <v>43.65881037738254</v>
       </c>
       <c r="Q6" t="n">
-        <v>29.18475853790577</v>
+        <v>29.18475853790576</v>
       </c>
       <c r="R6" t="n">
         <v>14.19528043782965</v>
       </c>
       <c r="S6" t="n">
-        <v>4.24675138840128</v>
+        <v>4.246751388401279</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9215500651572083</v>
+        <v>0.9215500651572082</v>
       </c>
       <c r="U6" t="n">
         <v>0.0150416223910317</v>
@@ -31442,10 +31442,10 @@
         <v>1.70419115850653</v>
       </c>
       <c r="I7" t="n">
-        <v>5.764278478874845</v>
+        <v>5.764278478874846</v>
       </c>
       <c r="J7" t="n">
-        <v>13.55163051094609</v>
+        <v>13.55163051094608</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -31463,7 +31463,7 @@
         <v>27.09280586141055</v>
       </c>
       <c r="P7" t="n">
-        <v>23.18257584127899</v>
+        <v>23.18257584127898</v>
       </c>
       <c r="Q7" t="n">
         <v>16.05041386605689</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9475157657682005</v>
+        <v>0.947515765768191</v>
       </c>
       <c r="H8" t="n">
-        <v>9.703745836173587</v>
+        <v>9.703745836173487</v>
       </c>
       <c r="I8" t="n">
-        <v>36.52910155977859</v>
+        <v>36.52910155977822</v>
       </c>
       <c r="J8" t="n">
-        <v>80.41921622486888</v>
+        <v>80.41921622486807</v>
       </c>
       <c r="K8" t="n">
-        <v>120.5275585898368</v>
+        <v>120.5275585898356</v>
       </c>
       <c r="L8" t="n">
-        <v>149.5250942064654</v>
+        <v>149.5250942064639</v>
       </c>
       <c r="M8" t="n">
-        <v>166.3754777059457</v>
+        <v>166.375477705944</v>
       </c>
       <c r="N8" t="n">
-        <v>169.0676068754346</v>
+        <v>169.0676068754329</v>
       </c>
       <c r="O8" t="n">
-        <v>159.645746979577</v>
+        <v>159.6457469795754</v>
       </c>
       <c r="P8" t="n">
-        <v>136.2539515121746</v>
+        <v>136.2539515121732</v>
       </c>
       <c r="Q8" t="n">
-        <v>102.3210431506008</v>
+        <v>102.3210431505998</v>
       </c>
       <c r="R8" t="n">
-        <v>59.51938722143678</v>
+        <v>59.51938722143618</v>
       </c>
       <c r="S8" t="n">
-        <v>21.59151551244289</v>
+        <v>21.59151551244267</v>
       </c>
       <c r="T8" t="n">
-        <v>4.1477502646503</v>
+        <v>4.147750264650258</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07580126126145603</v>
+        <v>0.07580126126145526</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5069656288258824</v>
+        <v>0.5069656288258773</v>
       </c>
       <c r="H9" t="n">
-        <v>4.896220678397339</v>
+        <v>4.896220678397289</v>
       </c>
       <c r="I9" t="n">
-        <v>17.45473765913674</v>
+        <v>17.45473765913657</v>
       </c>
       <c r="J9" t="n">
-        <v>47.89713425674708</v>
+        <v>47.8971342567466</v>
       </c>
       <c r="K9" t="n">
-        <v>81.86383138808119</v>
+        <v>81.86383138808037</v>
       </c>
       <c r="L9" t="n">
-        <v>110.0760239255496</v>
+        <v>110.0760239255485</v>
       </c>
       <c r="M9" t="n">
-        <v>128.4535279704878</v>
+        <v>128.4535279704865</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>120.620019591744</v>
+        <v>120.6200195917428</v>
       </c>
       <c r="P9" t="n">
-        <v>96.80819977114592</v>
+        <v>96.80819977114494</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.71371781293195</v>
+        <v>64.71371781293129</v>
       </c>
       <c r="R9" t="n">
-        <v>31.47633965639998</v>
+        <v>31.47633965639966</v>
       </c>
       <c r="S9" t="n">
-        <v>9.416664202094783</v>
+        <v>9.416664202094688</v>
       </c>
       <c r="T9" t="n">
-        <v>2.043427249521867</v>
+        <v>2.043427249521847</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03335300189643964</v>
+        <v>0.0333530018964393</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4250229531284</v>
+        <v>0.4250229531283958</v>
       </c>
       <c r="H10" t="n">
-        <v>3.778840437814323</v>
+        <v>3.778840437814285</v>
       </c>
       <c r="I10" t="n">
-        <v>12.78159935407953</v>
+        <v>12.7815993540794</v>
       </c>
       <c r="J10" t="n">
-        <v>30.04912278617788</v>
+        <v>30.04912278617758</v>
       </c>
       <c r="K10" t="n">
-        <v>49.3799394634632</v>
+        <v>49.3799394634627</v>
       </c>
       <c r="L10" t="n">
-        <v>63.18932159510778</v>
+        <v>63.18932159510714</v>
       </c>
       <c r="M10" t="n">
-        <v>66.62427982539091</v>
+        <v>66.62427982539025</v>
       </c>
       <c r="N10" t="n">
-        <v>65.04010336373058</v>
+        <v>65.04010336372991</v>
       </c>
       <c r="O10" t="n">
-        <v>60.07506250218515</v>
+        <v>60.07506250218454</v>
       </c>
       <c r="P10" t="n">
-        <v>51.40459425836575</v>
+        <v>51.40459425836523</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.58987655696085</v>
+        <v>35.58987655696049</v>
       </c>
       <c r="R10" t="n">
-        <v>19.11057751066424</v>
+        <v>19.11057751066404</v>
       </c>
       <c r="S10" t="n">
-        <v>7.406990919519479</v>
+        <v>7.406990919519403</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8160071633668</v>
+        <v>1.816007163366781</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02318307017064003</v>
+        <v>0.02318307017063979</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33745,7 +33745,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953989</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987504</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35588,7 +35588,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M16" t="n">
         <v>394.6085160120764</v>
@@ -35825,7 +35825,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162911</v>
       </c>
       <c r="L19" t="n">
         <v>366.7325087887907</v>
@@ -36062,7 +36062,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887907</v>
@@ -36293,13 +36293,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412311</v>
       </c>
       <c r="P22" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L25" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36764,13 +36764,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37001,13 +37001,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37092,7 +37092,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37393,7 +37393,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37475,7 +37475,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37782,28 +37782,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127288</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
